--- a/Data/Program output/All posts.xlsx
+++ b/Data/Program output/All posts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dispe\Code\Dual-Deflection\Data\Program output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b08f9f412f899893/Documents/GitHub/dual_deflection/Data/Program output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BC00F5-58FD-4D96-B578-01E98CA696E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D5BC00F5-58FD-4D96-B578-01E98CA696E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B7ABDAB-EFAD-4099-A432-9E2E2F6EC3B3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26820" yWindow="0" windowWidth="24780" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,6 +545,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/Data/Program output/All posts.xlsx
+++ b/Data/Program output/All posts.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b08f9f412f899893/Documents/GitHub/dual_deflection/Data/Program output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D5BC00F5-58FD-4D96-B578-01E98CA696E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B7ABDAB-EFAD-4099-A432-9E2E2F6EC3B3}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D5BC00F5-58FD-4D96-B578-01E98CA696E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C518BC7-1FEE-47F0-847E-1FC22D8380B1}"/>
   <bookViews>
-    <workbookView xWindow="26820" yWindow="0" windowWidth="24780" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$66</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -541,7 +544,7 @@
   <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3848,6 +3851,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P66" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P66">
+      <sortCondition ref="A1:A66"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>